--- a/CaseAndFatalityDemographicsData/2021-04-30.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-04-30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\4.22.21 To Send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\4.29.21 to send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189F554-0FBC-4B12-A3D0-41BEDC4E2F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770A1C19-46A0-4D0C-A7F8-5A5330A2DCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="6210" yWindow="1416" windowWidth="18564" windowHeight="8994" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -574,11 +574,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.4785722507129795E-3</v>
+        <v>3.4853842826977383E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -586,11 +586,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>1336</v>
+        <v>1352</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7085928407913752E-2</v>
+        <v>1.7197954562800519E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -598,11 +598,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>3673</v>
+        <v>3718</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>4.6973514253194022E-2</v>
+        <v>4.7294375047701426E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -610,11 +610,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>15559</v>
+        <v>15636</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0.19898200606192371</v>
+        <v>0.19889587096445926</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -622,11 +622,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17118</v>
+        <v>17170</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.21891985216067936</v>
+        <v>0.21840893479532908</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -634,11 +634,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>15007</v>
+        <v>15078</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.19192255061194735</v>
+        <v>0.1917978985931259</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -646,11 +646,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>12641</v>
+        <v>12694</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.16166408757817197</v>
+        <v>0.16147251125753684</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -658,11 +658,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4557</v>
+        <v>4582</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5.8278874068011202E-2</v>
+        <v>5.8284783880733715E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -670,11 +670,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3067</v>
+        <v>3095</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3.9223459900502605E-2</v>
+        <v>3.9369577937771898E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -682,11 +682,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>1858</v>
+        <v>1875</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2.3761717800826161E-2</v>
+        <v>2.385071361335131E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -694,11 +694,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1.541058662540125E-2</v>
+        <v>1.5493423563233012E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -706,11 +706,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>1887</v>
+        <v>1909</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4132594989321295E-2</v>
+        <v>2.4283206553540083E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -722,7 +722,7 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>1.6625529139437033E-4</v>
+        <v>1.6536494771923576E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -731,7 +731,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>78193</v>
+        <v>78614</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB138E10-A78A-4DC8-A42A-79AF36BFE66D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -769,11 +769,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>26430</v>
+        <v>26641</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.33800979627332373</v>
+        <v>0.33888365939908921</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -781,11 +781,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>50866</v>
+        <v>51075</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.65051858862046474</v>
+        <v>0.64969343882768971</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -793,11 +793,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="6">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.1471615106211553E-2</v>
+        <v>1.1422901773221054E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -806,7 +806,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>78193</v>
+        <v>78614</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -823,7 +823,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -847,11 +847,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>1.2213369483201821E-2</v>
+        <v>1.2160683847660721E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -859,11 +859,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>12943</v>
+        <v>12965</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.16552632588594887</v>
+        <v>0.1649197343984532</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -871,11 +871,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>28163</v>
+        <v>28237</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>0.36017290550305014</v>
+        <v>0.35918538682677387</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -883,11 +883,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>6.6630005243436116E-3</v>
+        <v>6.818123998270028E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -895,11 +895,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>27030</v>
+        <v>27305</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.34568311741460234</v>
+        <v>0.34732999211336402</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -907,11 +907,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>8581</v>
+        <v>8615</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.10974128118885322</v>
+        <v>0.10958607881547816</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -920,7 +920,7 @@
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>78193</v>
+        <v>78614</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
@@ -937,7 +937,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -961,11 +961,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.2270691453463402E-4</v>
+        <v>1.4222727919214906E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -977,7 +977,7 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.4541382906926803E-4</v>
+        <v>2.4381819290082696E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -989,7 +989,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>6.7488802994048716E-4</v>
+        <v>6.7050003047727411E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -997,11 +997,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>4.8673742765404831E-3</v>
+        <v>4.9373184062417455E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1009,11 +1009,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.6401824242796081E-2</v>
+        <v>1.6660909848223174E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1021,11 +1021,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2371</v>
+        <v>2401</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>4.8489682393602879E-2</v>
+        <v>4.8783956762907123E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1033,11 +1033,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>5446</v>
+        <v>5505</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.11137697609260282</v>
+        <v>0.11185159599325437</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1045,11 +1045,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4577</v>
+        <v>4605</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.360492463750332E-2</v>
+        <v>9.3565231525692336E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1057,11 +1057,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>5931</v>
+        <v>5973</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12129578501748574</v>
+        <v>0.12136050551638661</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1069,11 +1069,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>6557</v>
+        <v>6599</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13409820643393255</v>
+        <v>0.13407968791271307</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1081,11 +1081,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>6491</v>
+        <v>6520</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.13274843037405157</v>
+        <v>0.13247455147611598</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1093,11 +1093,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>16433</v>
+        <v>16499</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.33607378775794017</v>
+        <v>0.33522969705589534</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>48897</v>
+        <v>49217</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1156,11 +1156,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>20506</v>
+        <v>20638</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41937133157453421</v>
+        <v>0.41932665542393888</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1168,11 +1168,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>28390</v>
+        <v>28578</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58060821727304335</v>
+        <v>0.58065302639331939</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>2.0451152422439004E-5</v>
+        <v>2.031818274173558E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>48897</v>
+        <v>49217</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1234,11 +1234,11 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>2.1023784690267295E-2</v>
+        <v>2.1069955503179794E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1246,11 +1246,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>4899</v>
+        <v>4948</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.10019019571752869</v>
+        <v>0.10053436820610764</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1258,11 +1258,11 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>22716</v>
+        <v>22868</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>0.46456837842812443</v>
+        <v>0.46463620293800922</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1270,11 +1270,11 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.3786530871014586E-3</v>
+        <v>5.4655911575268706E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1282,11 +1282,11 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>19965</v>
+        <v>20072</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.40830725811399471</v>
+        <v>0.40782656399211653</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1294,11 +1294,11 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>5.3172996298341414E-4</v>
+        <v>4.6731820305991831E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>48897</v>
+        <v>49217</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="0"/>
